--- a/Pelis2021.xlsx
+++ b/Pelis2021.xlsx
@@ -496,7 +496,7 @@
         <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>46896</v>
+        <v>46906</v>
       </c>
     </row>
     <row r="3">
@@ -525,7 +525,7 @@
         <v>6.8</v>
       </c>
       <c r="G3" t="n">
-        <v>95063</v>
+        <v>95065</v>
       </c>
     </row>
     <row r="4">
@@ -583,7 +583,7 @@
         <v>6.4</v>
       </c>
       <c r="G5" t="n">
-        <v>24052</v>
+        <v>24054</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
         <v>6.6</v>
       </c>
       <c r="G6" t="n">
-        <v>36634</v>
+        <v>36636</v>
       </c>
     </row>
     <row r="7">
@@ -641,7 +641,7 @@
         <v>7.4</v>
       </c>
       <c r="G7" t="n">
-        <v>36415</v>
+        <v>36420</v>
       </c>
     </row>
     <row r="8">
@@ -699,7 +699,7 @@
         <v>5.7</v>
       </c>
       <c r="G9" t="n">
-        <v>7751</v>
+        <v>7753</v>
       </c>
     </row>
     <row r="10">
@@ -728,7 +728,7 @@
         <v>6.4</v>
       </c>
       <c r="G10" t="n">
-        <v>4028</v>
+        <v>4029</v>
       </c>
     </row>
     <row r="11">
@@ -757,7 +757,7 @@
         <v>6.7</v>
       </c>
       <c r="G11" t="n">
-        <v>75126</v>
+        <v>75128</v>
       </c>
     </row>
     <row r="12">
@@ -786,7 +786,7 @@
         <v>8.4</v>
       </c>
       <c r="G12" t="n">
-        <v>42355</v>
+        <v>42361</v>
       </c>
     </row>
     <row r="13">
@@ -844,7 +844,7 @@
         <v>7.4</v>
       </c>
       <c r="G14" t="n">
-        <v>73789</v>
+        <v>73792</v>
       </c>
     </row>
     <row r="15">
@@ -873,7 +873,7 @@
         <v>6.9</v>
       </c>
       <c r="G15" t="n">
-        <v>16821</v>
+        <v>16855</v>
       </c>
     </row>
     <row r="16">
@@ -902,7 +902,7 @@
         <v>7.5</v>
       </c>
       <c r="G16" t="n">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="17">
@@ -931,7 +931,7 @@
         <v>6</v>
       </c>
       <c r="G17" t="n">
-        <v>1637</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="18">
@@ -989,7 +989,7 @@
         <v>7.3</v>
       </c>
       <c r="G19" t="n">
-        <v>9372</v>
+        <v>9379</v>
       </c>
     </row>
     <row r="20">
@@ -1047,7 +1047,7 @@
         <v>6.4</v>
       </c>
       <c r="G21" t="n">
-        <v>93667</v>
+        <v>93675</v>
       </c>
     </row>
     <row r="22">
@@ -1076,7 +1076,7 @@
         <v>6.2</v>
       </c>
       <c r="G22" t="n">
-        <v>91906</v>
+        <v>91911</v>
       </c>
     </row>
     <row r="23">
@@ -1105,7 +1105,7 @@
         <v>7.2</v>
       </c>
       <c r="G23" t="n">
-        <v>35877</v>
+        <v>35901</v>
       </c>
     </row>
     <row r="24">
@@ -1163,7 +1163,7 @@
         <v>7.3</v>
       </c>
       <c r="G25" t="n">
-        <v>64927</v>
+        <v>64933</v>
       </c>
     </row>
     <row r="26">
@@ -1192,7 +1192,7 @@
         <v>5.7</v>
       </c>
       <c r="G26" t="n">
-        <v>9975</v>
+        <v>9985</v>
       </c>
     </row>
     <row r="27">
@@ -1250,7 +1250,7 @@
         <v>7.2</v>
       </c>
       <c r="G28" t="n">
-        <v>35877</v>
+        <v>35901</v>
       </c>
     </row>
     <row r="29">
@@ -1279,7 +1279,7 @@
         <v>5.3</v>
       </c>
       <c r="G29" t="n">
-        <v>1075</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="30">
@@ -1308,7 +1308,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>70771</v>
+        <v>70778</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1337,7 @@
         <v>6.3</v>
       </c>
       <c r="G31" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="32">
@@ -1366,7 +1366,7 @@
         <v>6.6</v>
       </c>
       <c r="G32" t="n">
-        <v>18579</v>
+        <v>18582</v>
       </c>
     </row>
     <row r="33">
@@ -1395,7 +1395,7 @@
         <v>7.7</v>
       </c>
       <c r="G33" t="n">
-        <v>95044</v>
+        <v>95052</v>
       </c>
     </row>
     <row r="34">
@@ -1424,7 +1424,7 @@
         <v>8.1</v>
       </c>
       <c r="G34" t="n">
-        <v>34806</v>
+        <v>34809</v>
       </c>
     </row>
     <row r="35">
@@ -1453,7 +1453,7 @@
         <v>7.8</v>
       </c>
       <c r="G35" t="n">
-        <v>42235</v>
+        <v>42238</v>
       </c>
     </row>
     <row r="36">
@@ -1482,7 +1482,7 @@
         <v>6.6</v>
       </c>
       <c r="G36" t="n">
-        <v>12409</v>
+        <v>12422</v>
       </c>
     </row>
     <row r="37">
@@ -1511,7 +1511,7 @@
         <v>7.1</v>
       </c>
       <c r="G37" t="n">
-        <v>13355</v>
+        <v>13371</v>
       </c>
     </row>
     <row r="38">
@@ -1540,7 +1540,7 @@
         <v>7.1</v>
       </c>
       <c r="G38" t="n">
-        <v>25814</v>
+        <v>25831</v>
       </c>
     </row>
     <row r="39">
@@ -1569,7 +1569,7 @@
         <v>6.2</v>
       </c>
       <c r="G39" t="n">
-        <v>11832</v>
+        <v>11854</v>
       </c>
     </row>
   </sheetData>
